--- a/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,43</t>
+          <t>-15,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>-12,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>-16,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>-23,51</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-17,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-23,96%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-38,99%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-29,69%</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-36,44%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-27,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-32,48%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-48,98%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 7,04</t>
+          <t>-16,26; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 2,16</t>
+          <t>-21,01; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,77; -4,06</t>
+          <t>-26,1; -2,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,28; -0,0</t>
+          <t>-27,06; 1,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 30,97</t>
+          <t>-30,91; -3,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 9,23</t>
+          <t>-35,96; -10,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -11,0</t>
+          <t>-45,49; 22,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 0,69</t>
+          <t>-47,24; 7,88</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-55,35; -8,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-51,93; 2,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-53,02; -8,47</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-65,9; -24,53</t>
         </is>
       </c>
     </row>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,77</t>
+          <t>-16,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,16</t>
+          <t>-14,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-12,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,22 +812,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,7%</t>
+          <t>-16,98</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>-26,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-31,39%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -5,38</t>
+          <t>-29,87; -4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -3,68</t>
+          <t>-24,95; -3,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -0,22</t>
+          <t>-23,31; -0,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 2,41</t>
+          <t>-22,29; 2,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; -10,52</t>
+          <t>-12,93; 11,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -6,89</t>
+          <t>-29,61; 1,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,71; -0,34</t>
+          <t>-47,87; -8,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 6,67</t>
+          <t>-41,78; -8,08</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; -1,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-43,53; 7,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 33,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-47,8; 3,27</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-17,72</t>
+          <t>-22,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,06</t>
+          <t>-23,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,93</t>
+          <t>-22,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,89</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,16%</t>
+          <t>-15,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,96%</t>
+          <t>-21,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,57%</t>
+          <t>-34,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>-37,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-34,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-17,12%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-23,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-37,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -7,28</t>
+          <t>-31,58; -12,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,21; -13,5</t>
+          <t>-31,66; -14,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -14,19</t>
+          <t>-30,12; -15,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -0,54</t>
+          <t>-19,4; -0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,16; -13,51</t>
+          <t>-25,84; -5,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,69; -24,21</t>
+          <t>-30,51; -12,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,15; -22,83</t>
+          <t>-46,12; -22,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -1,89</t>
+          <t>-47,18; -26,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; -24,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; -0,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-36,83; -8,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-48,23; -22,68</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,08</t>
+          <t>-17,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>-18,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-17,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,78</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,33%</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,65%</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>-26,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>-26,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-25,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-17,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-14,21%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -9,89</t>
+          <t>-25,68; -9,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,78; -11,37</t>
+          <t>-26,17; -11,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -9,1</t>
+          <t>-24,46; -9,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -1,61</t>
+          <t>-20,94; -0,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,06; -16,11</t>
+          <t>-25,07; -7,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,36; -16,97</t>
+          <t>-16,9; 1,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -14,42</t>
+          <t>-37,28; -14,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -2,95</t>
+          <t>-35,69; -17,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-34,29; -15,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; -0,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-33,98; -10,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-26,12; 2,4</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-9,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-11,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-12,33</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,92</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,64</t>
+          <t>-19,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>-15,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-17,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-17,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-26,06%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-15,32%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-20,93%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 1,84</t>
+          <t>-18,98; 0,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,89; -3,36</t>
+          <t>-19,88; -3,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -4,89</t>
+          <t>-20,22; -3,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,11; -9,47</t>
+          <t>-29,78; -10,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 2,86</t>
+          <t>-20,62; -0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,72; -5,12</t>
+          <t>-24,9; -5,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -7,05</t>
+          <t>-26,06; 1,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,97; -14,09</t>
+          <t>-27,38; -4,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-26,7; -5,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-37,6; -14,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-26,62; -0,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-33,08; -8,05</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-15,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-19,48%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-3,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-14,77%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 11,88</t>
+          <t>-12,94; 9,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 14,3</t>
+          <t>-11,75; 9,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -6,26</t>
+          <t>-27,08; -6,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 6,99</t>
+          <t>-17,11; 6,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 18,41</t>
+          <t>-14,1; 8,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 23,61</t>
+          <t>-23,88; -0,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -8,46</t>
+          <t>-16,11; 14,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 9,82</t>
+          <t>-15,76; 15,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-32,58; -7,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; 9,27</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-18,03; 12,26</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-30,37; -0,46</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,54</t>
+          <t>-13,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-15,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-21,59%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-24,31%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-16,04%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-25,65%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -6,68</t>
+          <t>-17,24; -8,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -8,36</t>
+          <t>-16,77; -9,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -11,31</t>
+          <t>-19,13; -11,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -5,23</t>
+          <t>-14,2; -4,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -11,64</t>
+          <t>-15,22; -5,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -14,32</t>
+          <t>-20,23; -10,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-29,91; -18,86</t>
+          <t>-27,09; -13,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -9,29</t>
+          <t>-26,84; -15,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-29,54; -18,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; -8,57</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; -9,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-31,74; -17,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
